--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_12_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_12_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_24</t>
+          <t>model_12_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999787816006671</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990717097712636</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999887974736501</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992422683775587</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999922246612808</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G2" t="n">
-        <v>1.980644439716719e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008665181812936953</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I2" t="n">
-        <v>3.142499568954815e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>9.22531297830811e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>6.183906273631463e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002825664543677163</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004450443168625703</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000101848316798</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004639907748001498</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P2" t="n">
-        <v>79.6590063972295</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q2" t="n">
-        <v>115.0064053184073</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_23</t>
+          <t>model_12_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999979058288723</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990709676914693</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998891729470795</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992529822307461</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999232779674501</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G3" t="n">
-        <v>1.954816824221604e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008672108802081559</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I3" t="n">
-        <v>3.108887720086922e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>9.094872798791178e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>6.101880259439051e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002814586321256839</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004421331048701968</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00010052021413</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004609556264862213</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P3" t="n">
-        <v>79.68525794394596</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q3" t="n">
-        <v>115.0326568651238</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_22</t>
+          <t>model_12_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999793634550284</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990701391408673</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998905062133284</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992648005808098</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999244176786234</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G4" t="n">
-        <v>1.926330889144172e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008679842958259911</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I4" t="n">
-        <v>3.071487329480646e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>8.950985471146537e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>6.011236400313592e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002801981499172909</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004388998620578699</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000099055415864</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004575847378336384</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P4" t="n">
-        <v>79.71461673026663</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q4" t="n">
-        <v>115.0620156514444</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_21</t>
+          <t>model_12_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999796948588385</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990692203755481</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998919655810684</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9992776468683983</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999256583073193</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G5" t="n">
-        <v>1.895395798149966e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008688419229222876</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I5" t="n">
-        <v>3.030549577131049e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>8.794583098454654e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>5.912566337792852e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002788417536609444</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004353614358380822</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000097464677575</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004538956734841224</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P5" t="n">
-        <v>79.7469955675718</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.0943944887496</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_20</t>
+          <t>model_12_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999980066503124</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990681904038448</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998936140589779</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9992920604463894</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999270522477967</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G6" t="n">
-        <v>1.860704435433059e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008698033562968117</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I6" t="n">
-        <v>2.984306962220682e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>8.619099108916386e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>5.801703035568534e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002772549769412413</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004313588338533313</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000095680785005</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004497226724463522</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P6" t="n">
-        <v>79.78394064043458</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.1313395616124</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_19</t>
+          <t>model_12_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.99998046965217</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990670415954591</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998953766998749</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993078169005783</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999285691060011</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G7" t="n">
-        <v>1.823072241608927e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008708757184980301</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I7" t="n">
-        <v>2.934861880943644e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>8.427265724884381e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>5.681063802914013e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002755452494959943</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004269745005979779</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000093745669584</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004451516890474975</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P7" t="n">
-        <v>79.82480468437564</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q7" t="n">
-        <v>115.1722036055534</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_18</t>
+          <t>model_12_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999809112194635</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990657519917996</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998973105504793</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9993251394387</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999302360268225</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G8" t="n">
-        <v>1.781853873020265e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008720795069071099</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I8" t="n">
-        <v>2.880614075574708e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>8.216365412664168e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>5.548489744119438e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002736729011844857</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004221201100421851</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000091626146575</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004400906370357708</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P8" t="n">
-        <v>79.87054228191212</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q8" t="n">
-        <v>115.2179412030899</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_17</t>
+          <t>model_12_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999981392045768</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990643022121997</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998994013309042</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9993441245245103</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999320578753417</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G9" t="n">
-        <v>1.736970848082054e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008734328125256378</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I9" t="n">
-        <v>2.821964121279717e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>7.985223734882475e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>5.403593928081097e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002715824923429905</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004167698223338698</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000089318180314</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004345125765030901</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P9" t="n">
-        <v>79.92156552152797</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.2689644427058</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_16</t>
+          <t>model_12_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999819113718859</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990627017580821</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999017103147469</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9993646307432215</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999340346334323</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G10" t="n">
-        <v>1.688494034555967e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008749267661925363</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I10" t="n">
-        <v>2.757193189223041e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>7.735562403602325e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>5.246377796412683e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002692837590884581</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004109128903497634</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000086825414948</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004284063027988997</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P10" t="n">
-        <v>79.97817687423462</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.3255757954124</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_15</t>
+          <t>model_12_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999824766922274</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990609115907824</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999042346526958</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999387062843759</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999361967783507</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G11" t="n">
-        <v>1.635723862137085e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008765978087875938</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I11" t="n">
-        <v>2.686381207458834e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>7.462453637792491e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>5.074417422625663e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002667357488251779</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004044408315362193</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000084111877309</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004216587150426542</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P11" t="n">
-        <v>80.04168005892161</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.3890789800994</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_14</t>
+          <t>model_12_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999830920705971</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990589201797342</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999070299854858</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9994115281728281</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999385623389571</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G12" t="n">
-        <v>1.578280992525493e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008784567035882931</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I12" t="n">
-        <v>2.60796735853732e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>7.164590501167816e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>4.886278929852569e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002638976581299371</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003972758478092387</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000081158061134</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00414188703124855</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P12" t="n">
-        <v>80.11317837924966</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.4605773004275</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_13</t>
+          <t>model_12_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999837562338728</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990566936346105</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999101184765297</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9994379940521951</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999411327226481</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G13" t="n">
-        <v>1.516284266082521e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008805350857272288</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I13" t="n">
-        <v>2.521329920952336e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>6.842370848224681e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>4.681850384588508e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002607550963803691</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003893949493871898</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000077970077411</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004059722985412708</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P13" t="n">
-        <v>80.19332536943888</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q13" t="n">
-        <v>115.5407242906167</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999844664268086</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999054193888976</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999134057276221</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9994666166904967</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999439032382188</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G14" t="n">
-        <v>1.449990872905959e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008828684885508016</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I14" t="n">
-        <v>2.429116925254277e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>6.493892853144719e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.461504889199498e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002573049352206232</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003807874568451486</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000074561151319</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003969983672217491</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P14" t="n">
-        <v>80.28273640621035</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.6301353273882</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_11</t>
+          <t>model_12_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.99998521943075</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990514057080764</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999169391567588</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9994972231754425</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999468690132111</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G15" t="n">
-        <v>1.379701260280412e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008854711330336535</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I15" t="n">
-        <v>2.329998215846321e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>6.121261707197267e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>4.225629961521793e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002535568990642677</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003714433012291933</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0000709467324</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003872564115561538</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P15" t="n">
-        <v>80.38211693458709</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.7295158557649</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_10</t>
+          <t>model_12_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.99998600350446</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990483007893812</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999206545530823</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999529520458829</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999499962936752</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G16" t="n">
-        <v>1.306511421140909e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008883694383453894</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I16" t="n">
-        <v>2.225775016719015e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>5.728045245371611e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>3.976910131045313e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002495727950691552</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003614569713175981</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000067183178592</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003768449429056693</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P16" t="n">
-        <v>80.49112983449164</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q16" t="n">
-        <v>115.8385287556695</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_9</t>
+          <t>model_12_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999868404489018</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990447950965738</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999246934022997</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9995643654408234</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999533756188942</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G17" t="n">
-        <v>1.228386331260792e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008916418486989747</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I17" t="n">
-        <v>2.112478412645288e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>5.303810786758085e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.708144599701686e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002450689431703552</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003504834277481308</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000063165845271</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003654042328680829</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P17" t="n">
-        <v>80.61444816543641</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.9618470866142</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_8</t>
+          <t>model_12_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.99998772386807</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990408468392921</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999290793398607</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9996015557269564</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999569956656743</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G18" t="n">
-        <v>1.145923029673056e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008953273735629991</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I18" t="n">
-        <v>1.989445388983905e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>4.851022465445619e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.420233927214762e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002400363265793492</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003385148489613204</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000058925433264</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003529261269039444</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P18" t="n">
-        <v>80.75343002653493</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.1008289477127</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_7</t>
+          <t>model_12_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999988634392896</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990364272779383</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999933727349446</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9996405896473782</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999960803042901</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G19" t="n">
-        <v>1.060929533909168e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000899452840090435</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I19" t="n">
-        <v>1.859060798383719e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>4.37578806582843e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.117424432106074e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002345773643558225</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003257191326755565</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000054554914099</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003395856704851113</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P19" t="n">
-        <v>80.90756004466533</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q19" t="n">
-        <v>116.2549589658431</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_6</t>
+          <t>model_12_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999895286403021</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990315815319963</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999385398705241</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996798590574214</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999646574569393</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G20" t="n">
-        <v>9.774554638368785e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009039761312235995</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I20" t="n">
-        <v>1.724061380029452e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.89768660167939e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.810873990854421e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002289507420421894</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003126428415679589</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00005026252655</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003259526945934091</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P20" t="n">
-        <v>81.07145602884597</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.4188549500238</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_5</t>
+          <t>model_12_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999904496979984</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990260595651816</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999436501022477</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997214112673152</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999687391004585</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G21" t="n">
-        <v>8.914787708659161e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009091306448588127</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I21" t="n">
-        <v>1.580710670666056e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>3.391792258803916e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.486251464734986e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002225742359414024</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002985764174990912</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000045841449607</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003112874337304176</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P21" t="n">
-        <v>81.25559823951674</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.6029971606946</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_4</t>
+          <t>model_12_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999913418523637</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990199025312665</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999489578227586</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997632826154244</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999728799989891</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G22" t="n">
-        <v>8.082000769731496e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009148779657560378</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I22" t="n">
-        <v>1.431820064238731e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88201243743917e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.156916250838951e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002157913634693614</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002842885993094253</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000041559108654</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002963913535405566</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P22" t="n">
-        <v>81.45174219213554</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.7991411133134</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_3</t>
+          <t>model_12_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999921689527749</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990130533673002</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999543911224108</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998043895691728</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999769845366843</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G23" t="n">
-        <v>7.30993884137487e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009212713596750411</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I23" t="n">
-        <v>1.279406748871629e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38153904727898e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>1.830472898075305e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002086808332347497</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002703689856728184</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000037589026681</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002818791531338669</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P23" t="n">
-        <v>81.65255130134115</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q23" t="n">
-        <v>116.999950222519</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_2</t>
+          <t>model_12_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999928990974301</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990055744058487</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999599217400276</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998436381868191</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999809639985614</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G24" t="n">
-        <v>6.628380855404853e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009282526419014712</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I24" t="n">
-        <v>1.124263498732232e-05</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>1.903690728654628e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>1.51397711369343e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002014583053648306</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00257456420689111</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000034084332336</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002684168735261087</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P24" t="n">
-        <v>81.84829999692575</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.1956989181036</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_1</t>
+          <t>model_12_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999935381880124</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989969505843762</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999654664556507</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998823920076824</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999849080746153</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G25" t="n">
-        <v>6.031817849678706e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000936302600704092</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I25" t="n">
-        <v>9.687247754906228e-06</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>1.431866515462205e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>1.200295645476414e-05</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001933482565905247</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00245597594647804</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000031016697541</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002560531927090691</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P25" t="n">
-        <v>82.036924250098</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q25" t="n">
-        <v>117.3843231712758</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_7_0</t>
+          <t>model_12_7_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999939926360498</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989874365660438</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999709526058431</v>
+        <v>0.9999999999997982</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999171315644777</v>
+        <v>0.9999707955628054</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999885345680499</v>
+        <v>0.9999858398671068</v>
       </c>
       <c r="G26" t="n">
-        <v>5.607610554719066e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009451835192002165</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I26" t="n">
-        <v>8.148289123905009e-06</v>
+        <v>5.506823699619356e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>1.008915598972997e-05</v>
+        <v>2.279014856234063e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>9.118722556817491e-06</v>
+        <v>1.139507430870443e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000185172984580963</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00236803939044921</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000028835346961</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002468851729817948</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P26" t="n">
-        <v>82.18277171047396</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q26" t="n">
-        <v>117.5301706316518</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
   </sheetData>
